--- a/Code/Results/Cases/Case_7_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_10/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.56889111775558</v>
+        <v>19.02209535523182</v>
       </c>
       <c r="C2">
-        <v>15.81709557421002</v>
+        <v>12.49783485343504</v>
       </c>
       <c r="D2">
-        <v>3.570865235915067</v>
+        <v>6.022917594621389</v>
       </c>
       <c r="E2">
-        <v>6.982092659867815</v>
+        <v>8.466446019833352</v>
       </c>
       <c r="F2">
-        <v>34.5937921496168</v>
+        <v>23.46142628797243</v>
       </c>
       <c r="G2">
-        <v>2.089949952976646</v>
+        <v>2.079667130296742</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.678903108769784</v>
+        <v>5.689720613028596</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.9024792584087</v>
+        <v>14.14115416001219</v>
       </c>
       <c r="N2">
-        <v>12.80783846478033</v>
+        <v>11.92512054718892</v>
       </c>
       <c r="O2">
-        <v>25.38150101725855</v>
+        <v>16.66291585361309</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.98601526540442</v>
+        <v>17.73979777111911</v>
       </c>
       <c r="C3">
-        <v>14.69597537138456</v>
+        <v>11.71622355538568</v>
       </c>
       <c r="D3">
-        <v>3.516179911692464</v>
+        <v>5.861514380872071</v>
       </c>
       <c r="E3">
-        <v>6.930039009956021</v>
+        <v>8.352004182077099</v>
       </c>
       <c r="F3">
-        <v>33.43997784009816</v>
+        <v>22.9129233672789</v>
       </c>
       <c r="G3">
-        <v>2.09985306324372</v>
+        <v>2.085382483067323</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.707910637397797</v>
+        <v>5.719649533455517</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.12839979621797</v>
+        <v>13.42387929469557</v>
       </c>
       <c r="N3">
-        <v>13.08101521699926</v>
+        <v>12.10281908531818</v>
       </c>
       <c r="O3">
-        <v>24.6323040613313</v>
+        <v>16.41320108526507</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.04530902635083</v>
+        <v>16.90599758085672</v>
       </c>
       <c r="C4">
-        <v>13.97164668479257</v>
+        <v>11.20921879855663</v>
       </c>
       <c r="D4">
-        <v>3.482964494744181</v>
+        <v>5.762441997190914</v>
       </c>
       <c r="E4">
-        <v>6.901227611686683</v>
+        <v>8.285674501516642</v>
       </c>
       <c r="F4">
-        <v>32.7497176206854</v>
+        <v>22.59225303969231</v>
       </c>
       <c r="G4">
-        <v>2.106081392885041</v>
+        <v>2.089001337413225</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.728074249035235</v>
+        <v>5.740470098941248</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.6438602369687</v>
+        <v>12.96844884256039</v>
       </c>
       <c r="N4">
-        <v>13.25157192601078</v>
+        <v>12.21518919766957</v>
       </c>
       <c r="O4">
-        <v>24.18950855472612</v>
+        <v>16.27465656266078</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.6523913189025</v>
+        <v>16.55446179577238</v>
       </c>
       <c r="C5">
-        <v>13.66732613109486</v>
+        <v>10.99580746932924</v>
       </c>
       <c r="D5">
-        <v>3.46952442095369</v>
+        <v>5.72212925139596</v>
       </c>
       <c r="E5">
-        <v>6.890263758525082</v>
+        <v>8.259640382123653</v>
       </c>
       <c r="F5">
-        <v>32.47317797752495</v>
+        <v>22.46570372301649</v>
       </c>
       <c r="G5">
-        <v>2.10865877899107</v>
+        <v>2.090504294251049</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.736866136857413</v>
+        <v>5.74955389805951</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.44430633011862</v>
+        <v>12.77929485196638</v>
       </c>
       <c r="N5">
-        <v>13.3218287078939</v>
+        <v>12.26180716982927</v>
       </c>
       <c r="O5">
-        <v>24.01343891131496</v>
+        <v>16.22185894787183</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.58657424351215</v>
+        <v>16.49537748010286</v>
       </c>
       <c r="C6">
-        <v>13.61623824463183</v>
+        <v>10.95996033164534</v>
       </c>
       <c r="D6">
-        <v>3.46729861944529</v>
+        <v>5.715440557693381</v>
       </c>
       <c r="E6">
-        <v>6.888489707528212</v>
+        <v>8.255377694632751</v>
       </c>
       <c r="F6">
-        <v>32.4275507842584</v>
+        <v>22.44494145404283</v>
       </c>
       <c r="G6">
-        <v>2.109089184537308</v>
+        <v>2.090755584378783</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.738360291862028</v>
+        <v>5.751098014353603</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.41105117732091</v>
+        <v>12.74767785451846</v>
       </c>
       <c r="N6">
-        <v>13.3335415289232</v>
+        <v>12.26959813251991</v>
       </c>
       <c r="O6">
-        <v>23.98446807360528</v>
+        <v>16.21331112887496</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.04004855424987</v>
+        <v>16.90130433770483</v>
       </c>
       <c r="C7">
-        <v>13.96757970005379</v>
+        <v>11.20636818147001</v>
       </c>
       <c r="D7">
-        <v>3.482782844110408</v>
+        <v>5.761898011116186</v>
       </c>
       <c r="E7">
-        <v>6.901076623105571</v>
+        <v>8.285319358829417</v>
       </c>
       <c r="F7">
-        <v>32.74596865133255</v>
+        <v>22.59052955438893</v>
       </c>
       <c r="G7">
-        <v>2.106115990617557</v>
+        <v>2.08902149157252</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.728190512209905</v>
+        <v>5.740590199626839</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.64117715550173</v>
+        <v>12.96591195750658</v>
       </c>
       <c r="N7">
-        <v>13.25251632685188</v>
+        <v>12.21581455037709</v>
       </c>
       <c r="O7">
-        <v>24.18711625333369</v>
+        <v>16.27392977845559</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.03071119496186</v>
+        <v>18.58955916358599</v>
       </c>
       <c r="C8">
-        <v>15.43792722901279</v>
+        <v>12.23396055669726</v>
       </c>
       <c r="D8">
-        <v>3.551937173438266</v>
+        <v>5.967290332474505</v>
       </c>
       <c r="E8">
-        <v>6.963481807164341</v>
+        <v>8.426173059283379</v>
       </c>
       <c r="F8">
-        <v>34.19228160283927</v>
+        <v>23.26900678787282</v>
       </c>
       <c r="G8">
-        <v>2.093335206068776</v>
+        <v>2.081615457212854</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.688406204473087</v>
+        <v>5.699523384431812</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.63761910304129</v>
+        <v>13.89707247005096</v>
       </c>
       <c r="N8">
-        <v>12.9014700945109</v>
+        <v>11.98571725615991</v>
       </c>
       <c r="O8">
-        <v>25.11963100949274</v>
+        <v>16.57371609204382</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.72934246441599</v>
+        <v>21.53486433177815</v>
       </c>
       <c r="C9">
-        <v>18.04143547697892</v>
+        <v>14.03424758687663</v>
       </c>
       <c r="D9">
-        <v>3.69027006534832</v>
+        <v>6.36813437485598</v>
       </c>
       <c r="E9">
-        <v>7.111534718739041</v>
+        <v>8.733308067140033</v>
       </c>
       <c r="F9">
-        <v>37.1664206819367</v>
+        <v>24.72359984336099</v>
       </c>
       <c r="G9">
-        <v>2.069339550580546</v>
+        <v>2.06792922306897</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.629870960146369</v>
+        <v>5.639110475184375</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.51054877803796</v>
+        <v>15.60245138865069</v>
       </c>
       <c r="N9">
-        <v>12.23342504175371</v>
+        <v>11.56014290071827</v>
       </c>
       <c r="O9">
-        <v>27.08334289543044</v>
+        <v>17.28082256275528</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.21914204604423</v>
+        <v>23.48077702682918</v>
       </c>
       <c r="C10">
-        <v>19.79205154076629</v>
+        <v>15.22683934772632</v>
       </c>
       <c r="D10">
-        <v>3.793466705376974</v>
+        <v>6.658801032824235</v>
       </c>
       <c r="E10">
-        <v>7.236952123140856</v>
+        <v>8.977299127478132</v>
       </c>
       <c r="F10">
-        <v>39.42997349791614</v>
+        <v>25.86269118964739</v>
       </c>
       <c r="G10">
-        <v>2.052198807324871</v>
+        <v>2.058335812796804</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.599979420911415</v>
+        <v>5.608051149617569</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.98500986001323</v>
+        <v>16.99248339451571</v>
       </c>
       <c r="N10">
-        <v>11.75199709567257</v>
+        <v>11.26282371599585</v>
       </c>
       <c r="O10">
-        <v>28.60777151876007</v>
+        <v>17.87498624625463</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.30501502643191</v>
+        <v>24.31974998199948</v>
       </c>
       <c r="C11">
-        <v>20.55534186766911</v>
+        <v>15.74147448224613</v>
       </c>
       <c r="D11">
-        <v>3.840767600113138</v>
+        <v>6.78971595862587</v>
       </c>
       <c r="E11">
-        <v>7.297856018588613</v>
+        <v>9.092156448289652</v>
       </c>
       <c r="F11">
-        <v>40.47662520674083</v>
+        <v>26.395093777335</v>
       </c>
       <c r="G11">
-        <v>2.044466356255949</v>
+        <v>2.05406034928675</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.589537333395313</v>
+        <v>5.597064120862845</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.71286544498462</v>
+        <v>17.5926378148273</v>
       </c>
       <c r="N11">
-        <v>11.53431850375318</v>
+        <v>11.13085995102309</v>
       </c>
       <c r="O11">
-        <v>29.31945547697803</v>
+        <v>18.16175598843145</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.70973363769961</v>
+        <v>24.63088845192287</v>
       </c>
       <c r="C12">
-        <v>20.8398198998482</v>
+        <v>15.93237873712224</v>
       </c>
       <c r="D12">
-        <v>3.858734355279076</v>
+        <v>6.839066719914806</v>
       </c>
       <c r="E12">
-        <v>7.321493840266556</v>
+        <v>9.136194932250003</v>
       </c>
       <c r="F12">
-        <v>40.8754755953946</v>
+        <v>26.59866379968583</v>
       </c>
       <c r="G12">
-        <v>2.041543766802664</v>
+        <v>2.052453073783604</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.586065944576624</v>
+        <v>5.59337754775044</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.98405502214512</v>
+        <v>17.81533603451363</v>
       </c>
       <c r="N12">
-        <v>11.45201954393005</v>
+        <v>11.08136090227385</v>
       </c>
       <c r="O12">
-        <v>29.59165795478104</v>
+        <v>18.27273129295477</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.62285412762575</v>
+        <v>24.56416967612819</v>
       </c>
       <c r="C13">
-        <v>20.77875213094081</v>
+        <v>15.89144039234375</v>
       </c>
       <c r="D13">
-        <v>3.854862362369718</v>
+        <v>6.82844862385897</v>
       </c>
       <c r="E13">
-        <v>7.31637708354595</v>
+        <v>9.126686409540911</v>
       </c>
       <c r="F13">
-        <v>40.78946263598568</v>
+        <v>26.55473536588151</v>
       </c>
       <c r="G13">
-        <v>2.042173018877749</v>
+        <v>2.052798723350801</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.586791602707133</v>
+        <v>5.594150070468971</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.92584365724452</v>
+        <v>17.76757612328014</v>
       </c>
       <c r="N13">
-        <v>11.46973923162495</v>
+        <v>11.09200036353813</v>
       </c>
       <c r="O13">
-        <v>29.53291217324123</v>
+        <v>18.24872467304955</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.33843978740468</v>
+        <v>24.34547854747687</v>
       </c>
       <c r="C14">
-        <v>20.57883632606449</v>
+        <v>15.7572597890831</v>
       </c>
       <c r="D14">
-        <v>3.842244604249795</v>
+        <v>6.793780749286579</v>
       </c>
       <c r="E14">
-        <v>7.299789066089583</v>
+        <v>9.095768669534642</v>
       </c>
       <c r="F14">
-        <v>40.50938797042997</v>
+        <v>26.41180275135683</v>
       </c>
       <c r="G14">
-        <v>2.04422582590073</v>
+        <v>2.053927888232653</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.589241886990063</v>
+        <v>5.596751193596359</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.73526414854933</v>
+        <v>17.61105050910134</v>
       </c>
       <c r="N14">
-        <v>11.5275454374914</v>
+        <v>11.12677815358091</v>
       </c>
       <c r="O14">
-        <v>29.34179490084843</v>
+        <v>18.17083819692052</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.16339195415943</v>
+        <v>24.21067190518094</v>
       </c>
       <c r="C15">
-        <v>20.45579390358002</v>
+        <v>15.67455343587751</v>
       </c>
       <c r="D15">
-        <v>3.834523171981086</v>
+        <v>6.772515544603194</v>
       </c>
       <c r="E15">
-        <v>7.289703955403788</v>
+        <v>9.076901252360475</v>
       </c>
       <c r="F15">
-        <v>40.33816388557101</v>
+        <v>26.32450543437541</v>
       </c>
       <c r="G15">
-        <v>2.045483827486956</v>
+        <v>2.054621033760585</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.590806545016646</v>
+        <v>5.598406861805175</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.61795689285129</v>
+        <v>17.51458110389043</v>
       </c>
       <c r="N15">
-        <v>11.5629686926564</v>
+        <v>11.14814215055705</v>
       </c>
       <c r="O15">
-        <v>29.22508544226062</v>
+        <v>18.12344098332463</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.14725720111663</v>
+        <v>23.425025113053</v>
       </c>
       <c r="C16">
-        <v>19.7415191776369</v>
+        <v>15.19264833808531</v>
       </c>
       <c r="D16">
-        <v>3.790382907180952</v>
+        <v>6.650215932091061</v>
       </c>
       <c r="E16">
-        <v>7.233051148183535</v>
+        <v>8.969869722716659</v>
       </c>
       <c r="F16">
-        <v>39.3619175595046</v>
+        <v>25.82817614953573</v>
       </c>
       <c r="G16">
-        <v>2.052705131992171</v>
+        <v>2.058616924352852</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.6007277494493</v>
+        <v>5.608834268426095</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.93681231106547</v>
+        <v>16.95261942587621</v>
       </c>
       <c r="N16">
-        <v>11.76624454937781</v>
+        <v>11.27151397935149</v>
       </c>
       <c r="O16">
-        <v>28.56163387962613</v>
+        <v>17.85657788074277</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.51208248905521</v>
+        <v>22.93127500608911</v>
       </c>
       <c r="C17">
-        <v>19.29499431627955</v>
+        <v>14.88989549659506</v>
       </c>
       <c r="D17">
-        <v>3.76339736329435</v>
+        <v>6.574826779979468</v>
       </c>
       <c r="E17">
-        <v>7.199297064407063</v>
+        <v>8.905190985724989</v>
       </c>
       <c r="F17">
-        <v>38.76738850847492</v>
+        <v>25.52727355380154</v>
       </c>
       <c r="G17">
-        <v>2.057149226485091</v>
+        <v>2.061090287324204</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.607642061141886</v>
+        <v>5.61605125817116</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.51086014469715</v>
+        <v>16.59967404249857</v>
       </c>
       <c r="N17">
-        <v>11.89124565129996</v>
+        <v>11.34804019640275</v>
       </c>
       <c r="O17">
-        <v>28.15933750949639</v>
+        <v>17.6970965516936</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.14233015317118</v>
+        <v>22.64292605800857</v>
       </c>
       <c r="C18">
-        <v>19.03503928197744</v>
+        <v>14.71313350193586</v>
       </c>
       <c r="D18">
-        <v>3.747909155752084</v>
+        <v>6.531343396666185</v>
       </c>
       <c r="E18">
-        <v>7.180243688093563</v>
+        <v>8.868353889255093</v>
       </c>
       <c r="F18">
-        <v>38.42701805833401</v>
+        <v>25.35554567226597</v>
       </c>
       <c r="G18">
-        <v>2.059711719727265</v>
+        <v>2.062521305825066</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.611914116753751</v>
+        <v>5.620496620055673</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.26283387106595</v>
+        <v>16.39363662578709</v>
       </c>
       <c r="N18">
-        <v>11.96327143991611</v>
+        <v>11.39236546275963</v>
       </c>
       <c r="O18">
-        <v>27.92965389497707</v>
+        <v>17.60691798618289</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.0163728354986</v>
+        <v>22.54454518926638</v>
       </c>
       <c r="C19">
-        <v>18.94648059416853</v>
+        <v>14.65283291574623</v>
       </c>
       <c r="D19">
-        <v>3.742670739133642</v>
+        <v>6.516600946579211</v>
       </c>
       <c r="E19">
-        <v>7.173853953671205</v>
+        <v>8.855944419720959</v>
       </c>
       <c r="F19">
-        <v>38.31204617208125</v>
+        <v>25.29763504858281</v>
       </c>
       <c r="G19">
-        <v>2.060580538761046</v>
+        <v>2.063007296939059</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.613410413659325</v>
+        <v>5.622051641849635</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.18755215644739</v>
+        <v>16.32335328395503</v>
       </c>
       <c r="N19">
-        <v>11.9876819692762</v>
+        <v>11.40742640839434</v>
       </c>
       <c r="O19">
-        <v>27.852178308529</v>
+        <v>17.57665103976766</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.58015335062407</v>
+        <v>22.98428586427087</v>
       </c>
       <c r="C20">
-        <v>19.34284982441034</v>
+        <v>14.9223956759759</v>
       </c>
       <c r="D20">
-        <v>3.766266569553697</v>
+        <v>6.582864932927205</v>
       </c>
       <c r="E20">
-        <v>7.202852728750661</v>
+        <v>8.912038516861443</v>
       </c>
       <c r="F20">
-        <v>38.8305126451482</v>
+        <v>25.55916677012247</v>
       </c>
       <c r="G20">
-        <v>2.056675512261121</v>
+        <v>2.060826130655472</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.606875275724938</v>
+        <v>5.615252377723333</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.55651582694155</v>
+        <v>16.63755911766429</v>
       </c>
       <c r="N20">
-        <v>11.87792619830764</v>
+        <v>11.3398618333145</v>
       </c>
       <c r="O20">
-        <v>28.201985563583</v>
+        <v>17.71391300956179</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.42215288108192</v>
+        <v>24.4098908334789</v>
       </c>
       <c r="C21">
-        <v>20.63767865421941</v>
+        <v>15.79677953268971</v>
       </c>
       <c r="D21">
-        <v>3.845949212080409</v>
+        <v>6.803969880495088</v>
       </c>
       <c r="E21">
-        <v>7.304645587488633</v>
+        <v>9.104835266889305</v>
       </c>
       <c r="F21">
-        <v>40.59158373830535</v>
+        <v>26.45373292577401</v>
       </c>
       <c r="G21">
-        <v>2.043622749563707</v>
+        <v>2.053595914532072</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.58850882957092</v>
+        <v>5.595974134144581</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.79136079080724</v>
+        <v>17.65714933359413</v>
       </c>
       <c r="N21">
-        <v>11.51056327726097</v>
+        <v>11.11655023455295</v>
       </c>
       <c r="O21">
-        <v>29.39785639128348</v>
+        <v>18.19365061568005</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.58838392639758</v>
+        <v>25.30339785331028</v>
       </c>
       <c r="C22">
-        <v>21.45743021027186</v>
+        <v>16.3450782140387</v>
       </c>
       <c r="D22">
-        <v>3.898350329395992</v>
+        <v>6.947156539552894</v>
       </c>
       <c r="E22">
-        <v>7.374535429538724</v>
+        <v>9.234008385281408</v>
       </c>
       <c r="F22">
-        <v>41.75724281232419</v>
+        <v>27.04978239236013</v>
       </c>
       <c r="G22">
-        <v>2.035122085057321</v>
+        <v>2.048938522793888</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.579335176776978</v>
+        <v>5.586148596639169</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.57265712760647</v>
+        <v>18.2969196173451</v>
       </c>
       <c r="N22">
-        <v>11.27120606288826</v>
+        <v>10.9733601579248</v>
       </c>
       <c r="O22">
-        <v>30.19526045142878</v>
+        <v>18.52107480164317</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.96929793300476</v>
+        <v>24.82998314281453</v>
       </c>
       <c r="C23">
-        <v>21.02226823117721</v>
+        <v>16.05454813864049</v>
       </c>
       <c r="D23">
-        <v>3.87035129134658</v>
+        <v>6.870866281269699</v>
       </c>
       <c r="E23">
-        <v>7.336918598648104</v>
+        <v>9.16477974351573</v>
       </c>
       <c r="F23">
-        <v>41.13372029144593</v>
+        <v>26.73064121257272</v>
       </c>
       <c r="G23">
-        <v>2.039657683073735</v>
+        <v>2.051418388477976</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.583961991302909</v>
+        <v>5.591131199606982</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.15795687430676</v>
+        <v>17.95787447118891</v>
       </c>
       <c r="N23">
-        <v>11.39890837246145</v>
+        <v>11.04953067312284</v>
       </c>
       <c r="O23">
-        <v>29.76818078737078</v>
+        <v>18.34504803568264</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.54939280390755</v>
+        <v>22.96033363286451</v>
       </c>
       <c r="C24">
-        <v>19.32122446138511</v>
+        <v>14.90771077383467</v>
       </c>
       <c r="D24">
-        <v>3.764969320220318</v>
+        <v>6.579231320910377</v>
       </c>
       <c r="E24">
-        <v>7.201244117134524</v>
+        <v>8.908941664563439</v>
       </c>
       <c r="F24">
-        <v>38.80196976604271</v>
+        <v>25.54474390013348</v>
       </c>
       <c r="G24">
-        <v>2.056889654743138</v>
+        <v>2.060945527624598</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.607221016711177</v>
+        <v>5.615612630581134</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.53588468876769</v>
+        <v>16.62044101152658</v>
       </c>
       <c r="N24">
-        <v>11.88394741709568</v>
+        <v>11.34355824546329</v>
       </c>
       <c r="O24">
-        <v>28.18269939434378</v>
+        <v>17.70630558848096</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.76953086665635</v>
+        <v>20.77671520125092</v>
       </c>
       <c r="C25">
-        <v>17.36625648682915</v>
+        <v>13.57015863019728</v>
       </c>
       <c r="D25">
-        <v>3.652571213917497</v>
+        <v>6.260190409920307</v>
       </c>
       <c r="E25">
-        <v>7.068634080120202</v>
+        <v>8.646958171621641</v>
       </c>
       <c r="F25">
-        <v>36.34781539907036</v>
+        <v>24.31734384976616</v>
       </c>
       <c r="G25">
-        <v>2.075732475721442</v>
+        <v>2.071546926340055</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.643499903820646</v>
+        <v>5.65319403081666</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.013450875172</v>
+        <v>15.15112174472812</v>
       </c>
       <c r="N25">
-        <v>12.4122725943035</v>
+        <v>11.67255943286912</v>
       </c>
       <c r="O25">
-        <v>26.53779510576341</v>
+        <v>17.07652852331608</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.02209535523182</v>
+        <v>17.78434901618309</v>
       </c>
       <c r="C2">
-        <v>12.49783485343504</v>
+        <v>12.2488590341818</v>
       </c>
       <c r="D2">
-        <v>6.022917594621389</v>
+        <v>7.566102865928174</v>
       </c>
       <c r="E2">
-        <v>8.466446019833352</v>
+        <v>10.57862118072392</v>
       </c>
       <c r="F2">
-        <v>23.46142628797243</v>
+        <v>20.26796181276486</v>
       </c>
       <c r="G2">
-        <v>2.079667130296742</v>
+        <v>21.35465778035377</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1.882509140530021</v>
       </c>
       <c r="J2">
-        <v>5.689720613028596</v>
+        <v>8.340496924900666</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.45994527666156</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.754612336529954</v>
       </c>
       <c r="M2">
-        <v>14.14115416001219</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>11.92512054718892</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>16.66291585361309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.11150885793604</v>
+      </c>
+      <c r="P2">
+        <v>12.00941384855063</v>
+      </c>
+      <c r="Q2">
+        <v>13.61496615966306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.73979777111911</v>
+        <v>16.6529398955516</v>
       </c>
       <c r="C3">
-        <v>11.71622355538568</v>
+        <v>11.51435242580237</v>
       </c>
       <c r="D3">
-        <v>5.861514380872071</v>
+        <v>7.336024624352403</v>
       </c>
       <c r="E3">
-        <v>8.352004182077099</v>
+        <v>10.32552133164941</v>
       </c>
       <c r="F3">
-        <v>22.9129233672789</v>
+        <v>19.81975731849996</v>
       </c>
       <c r="G3">
-        <v>2.085382483067323</v>
+        <v>20.68674498395146</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>1.681505642568627</v>
       </c>
       <c r="J3">
-        <v>5.719649533455517</v>
+        <v>8.325972385319078</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>11.58754231686593</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.678583544892031</v>
       </c>
       <c r="M3">
-        <v>13.42387929469557</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.10281908531818</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>16.41320108526507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.37939283325521</v>
+      </c>
+      <c r="P3">
+        <v>12.06939584049649</v>
+      </c>
+      <c r="Q3">
+        <v>13.4552606852802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.90599758085672</v>
+        <v>15.91667212274128</v>
       </c>
       <c r="C4">
-        <v>11.20921879855663</v>
+        <v>11.03790243098785</v>
       </c>
       <c r="D4">
-        <v>5.762441997190914</v>
+        <v>7.191615510444295</v>
       </c>
       <c r="E4">
-        <v>8.285674501516642</v>
+        <v>10.16646696129465</v>
       </c>
       <c r="F4">
-        <v>22.59225303969231</v>
+        <v>19.55039154731876</v>
       </c>
       <c r="G4">
-        <v>2.089001337413225</v>
+        <v>20.28324991044622</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>1.567767545970671</v>
       </c>
       <c r="J4">
-        <v>5.740470098941248</v>
+        <v>8.321187714419006</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>11.67360163853763</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.630732254919502</v>
       </c>
       <c r="M4">
-        <v>12.96844884256039</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>12.21518919766957</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>16.27465656266078</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.90935869123618</v>
+      </c>
+      <c r="P4">
+        <v>12.10899941256895</v>
+      </c>
+      <c r="Q4">
+        <v>13.36508505896722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.55446179577238</v>
+        <v>15.60618336167707</v>
       </c>
       <c r="C5">
-        <v>10.99580746932924</v>
+        <v>10.83739494697462</v>
       </c>
       <c r="D5">
-        <v>5.72212925139596</v>
+        <v>7.132044405817298</v>
       </c>
       <c r="E5">
-        <v>8.259640382123653</v>
+        <v>10.10077784229192</v>
       </c>
       <c r="F5">
-        <v>22.46570372301649</v>
+        <v>19.44219709670174</v>
       </c>
       <c r="G5">
-        <v>2.090504294251049</v>
+        <v>20.12070260287451</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>1.622395576688149</v>
       </c>
       <c r="J5">
-        <v>5.74955389805951</v>
+        <v>8.320251434546098</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>11.71053618134301</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.610939357830055</v>
       </c>
       <c r="M5">
-        <v>12.77929485196638</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>12.26180716982927</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>16.22185894787183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.71281822226993</v>
+      </c>
+      <c r="P5">
+        <v>12.12582422294202</v>
+      </c>
+      <c r="Q5">
+        <v>13.33030428820886</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.49537748010286</v>
+        <v>15.55399581814318</v>
       </c>
       <c r="C6">
-        <v>10.95996033164534</v>
+        <v>10.80371914093174</v>
       </c>
       <c r="D6">
-        <v>5.715440557693381</v>
+        <v>7.122111033591093</v>
       </c>
       <c r="E6">
-        <v>8.255377694632751</v>
+        <v>10.08981884062705</v>
       </c>
       <c r="F6">
-        <v>22.44494145404283</v>
+        <v>19.42432965698045</v>
       </c>
       <c r="G6">
-        <v>2.090755584378783</v>
+        <v>20.09383175756229</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>1.631538750727737</v>
       </c>
       <c r="J6">
-        <v>5.751098014353603</v>
+        <v>8.320156411786526</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>11.71677963995347</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.607635089897407</v>
       </c>
       <c r="M6">
-        <v>12.74767785451846</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>12.26959813251991</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>16.21331112887496</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.67988627458758</v>
+      </c>
+      <c r="P6">
+        <v>12.12865907936913</v>
+      </c>
+      <c r="Q6">
+        <v>13.32464716420326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.90130433770483</v>
+        <v>15.91252707983133</v>
       </c>
       <c r="C7">
-        <v>11.20636818147001</v>
+        <v>11.03522394819682</v>
       </c>
       <c r="D7">
-        <v>5.761898011116186</v>
+        <v>7.190814950326635</v>
       </c>
       <c r="E7">
-        <v>8.285319358829417</v>
+        <v>10.16558452910621</v>
       </c>
       <c r="F7">
-        <v>22.59052955438893</v>
+        <v>19.54892588495122</v>
       </c>
       <c r="G7">
-        <v>2.08902149157252</v>
+        <v>20.28104983612776</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>1.568499445800068</v>
       </c>
       <c r="J7">
-        <v>5.740590199626839</v>
+        <v>8.321171018351214</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>11.67409229687121</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.630466506427974</v>
       </c>
       <c r="M7">
-        <v>12.96591195750658</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>12.21581455037709</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>16.27392977845559</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.90672807889716</v>
+      </c>
+      <c r="P7">
+        <v>12.10922355490275</v>
+      </c>
+      <c r="Q7">
+        <v>13.36460805614838</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.58955916358599</v>
+        <v>17.40286630070253</v>
       </c>
       <c r="C8">
-        <v>12.23396055669726</v>
+        <v>12.00091153884558</v>
       </c>
       <c r="D8">
-        <v>5.967290332474505</v>
+        <v>7.48746178271759</v>
       </c>
       <c r="E8">
-        <v>8.426173059283379</v>
+        <v>10.49213574255364</v>
       </c>
       <c r="F8">
-        <v>23.26900678787282</v>
+        <v>20.11227518189614</v>
       </c>
       <c r="G8">
-        <v>2.081615457212854</v>
+        <v>21.12312046107592</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>1.814139418927144</v>
       </c>
       <c r="J8">
-        <v>5.699523384431812</v>
+        <v>8.334615577934876</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>11.50229313025512</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.72864077652246</v>
       </c>
       <c r="M8">
-        <v>13.89707247005096</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>11.98571725615991</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>16.57371609204382</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13.86341926141506</v>
+      </c>
+      <c r="P8">
+        <v>12.02951260460538</v>
+      </c>
+      <c r="Q8">
+        <v>13.55825538106279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.53486433177815</v>
+        <v>19.99596850756271</v>
       </c>
       <c r="C9">
-        <v>14.03424758687663</v>
+        <v>13.69109617838835</v>
       </c>
       <c r="D9">
-        <v>6.36813437485598</v>
+        <v>8.041633718339423</v>
       </c>
       <c r="E9">
-        <v>8.733308067140033</v>
+        <v>11.10174747771019</v>
       </c>
       <c r="F9">
-        <v>24.72359984336099</v>
+        <v>21.25852815486736</v>
       </c>
       <c r="G9">
-        <v>2.06792922306897</v>
+        <v>22.81754527018015</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.291141239169103</v>
       </c>
       <c r="J9">
-        <v>5.639110475184375</v>
+        <v>8.394905233019486</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.23019335574848</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.911859052841321</v>
       </c>
       <c r="M9">
-        <v>15.60245138865069</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>11.56014290071827</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>17.28082256275528</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>15.57115472480817</v>
+      </c>
+      <c r="P9">
+        <v>11.89577160109705</v>
+      </c>
+      <c r="Q9">
+        <v>14.00101485866367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.48077702682918</v>
+        <v>21.68709234285824</v>
       </c>
       <c r="C10">
-        <v>15.22683934772632</v>
+        <v>14.77835125758579</v>
       </c>
       <c r="D10">
-        <v>6.658801032824235</v>
+        <v>8.355971623447594</v>
       </c>
       <c r="E10">
-        <v>8.977299127478132</v>
+        <v>11.37761117326978</v>
       </c>
       <c r="F10">
-        <v>25.86269118964739</v>
+        <v>21.98239929895171</v>
       </c>
       <c r="G10">
-        <v>2.058335812796804</v>
+        <v>23.92846191809417</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>2.609179413351117</v>
       </c>
       <c r="J10">
-        <v>5.608051149617569</v>
+        <v>8.435803535088013</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>11.03804242549726</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.985424085150181</v>
       </c>
       <c r="M10">
-        <v>16.99248339451571</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>11.26282371599585</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>17.87498624625463</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>16.6003637164091</v>
+      </c>
+      <c r="P10">
+        <v>11.82785709217427</v>
+      </c>
+      <c r="Q10">
+        <v>14.30041618438707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.31974998199948</v>
+        <v>22.29142629774694</v>
       </c>
       <c r="C11">
-        <v>15.74147448224613</v>
+        <v>14.99657565497994</v>
       </c>
       <c r="D11">
-        <v>6.78971595862587</v>
+        <v>7.873561495922983</v>
       </c>
       <c r="E11">
-        <v>9.092156448289652</v>
+        <v>10.28364104265793</v>
       </c>
       <c r="F11">
-        <v>26.395093777335</v>
+        <v>21.12524097355342</v>
       </c>
       <c r="G11">
-        <v>2.05406034928675</v>
+        <v>23.15038121389921</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.33111340770781</v>
       </c>
       <c r="J11">
-        <v>5.597064120862845</v>
+        <v>8.235533600430864</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>10.63875468964673</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.616329851502699</v>
       </c>
       <c r="M11">
-        <v>17.5926378148273</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>11.13085995102309</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>18.16175598843145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>16.03893321806157</v>
+      </c>
+      <c r="P11">
+        <v>11.94645176603555</v>
+      </c>
+      <c r="Q11">
+        <v>13.88192148918898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.63088845192287</v>
+        <v>22.45771779141304</v>
       </c>
       <c r="C12">
-        <v>15.93237873712224</v>
+        <v>14.95877665997138</v>
       </c>
       <c r="D12">
-        <v>6.839066719914806</v>
+        <v>7.406255949494798</v>
       </c>
       <c r="E12">
-        <v>9.136194932250003</v>
+        <v>9.44284885716783</v>
       </c>
       <c r="F12">
-        <v>26.59866379968583</v>
+        <v>20.22953163277852</v>
       </c>
       <c r="G12">
-        <v>2.052453073783604</v>
+        <v>22.23574367264317</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.465798014240006</v>
       </c>
       <c r="J12">
-        <v>5.59337754775044</v>
+        <v>8.051908989989286</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>10.33720614746226</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.404147448298783</v>
       </c>
       <c r="M12">
-        <v>17.81533603451363</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>11.08136090227385</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>18.27273129295477</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.34071754692842</v>
+      </c>
+      <c r="P12">
+        <v>12.0706282268152</v>
+      </c>
+      <c r="Q12">
+        <v>13.45206949840132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.56416967612819</v>
+        <v>22.30311037265689</v>
       </c>
       <c r="C13">
-        <v>15.89144039234375</v>
+        <v>14.721047874727</v>
       </c>
       <c r="D13">
-        <v>6.82844862385897</v>
+        <v>6.917608348809007</v>
       </c>
       <c r="E13">
-        <v>9.126686409540911</v>
+        <v>8.778735413715246</v>
       </c>
       <c r="F13">
-        <v>26.55473536588151</v>
+        <v>19.23517793920391</v>
       </c>
       <c r="G13">
-        <v>2.052798723350801</v>
+        <v>21.1346520505228</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.713264406806506</v>
       </c>
       <c r="J13">
-        <v>5.594150070468971</v>
+        <v>7.86901966478633</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>10.09411185254792</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.307477657073714</v>
       </c>
       <c r="M13">
-        <v>17.76757612328014</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>11.09200036353813</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>18.24872467304955</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>14.47562335035277</v>
+      </c>
+      <c r="P13">
+        <v>12.20163552646129</v>
+      </c>
+      <c r="Q13">
+        <v>12.98147224167511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.34547854747687</v>
+        <v>22.04763404824892</v>
       </c>
       <c r="C14">
-        <v>15.7572597890831</v>
+        <v>14.46109457747699</v>
       </c>
       <c r="D14">
-        <v>6.793780749286579</v>
+        <v>6.567493598511008</v>
       </c>
       <c r="E14">
-        <v>9.095768669534642</v>
+        <v>8.442822637184829</v>
       </c>
       <c r="F14">
-        <v>26.41180275135683</v>
+        <v>18.49048667129624</v>
       </c>
       <c r="G14">
-        <v>2.053927888232653</v>
+        <v>20.26888734479459</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.625292763890857</v>
       </c>
       <c r="J14">
-        <v>5.596751193596359</v>
+        <v>7.741804642600789</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>9.953465636526225</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.310671787898227</v>
       </c>
       <c r="M14">
-        <v>17.61105050910134</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>11.12677815358091</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>18.17083819692052</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.78337047150311</v>
+      </c>
+      <c r="P14">
+        <v>12.29581271594832</v>
+      </c>
+      <c r="Q14">
+        <v>12.63278487128596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.21067190518094</v>
+        <v>21.91566424971454</v>
       </c>
       <c r="C15">
-        <v>15.67455343587751</v>
+        <v>14.35392070122235</v>
       </c>
       <c r="D15">
-        <v>6.772515544603194</v>
+        <v>6.47687536943821</v>
       </c>
       <c r="E15">
-        <v>9.076901252360475</v>
+        <v>8.379606814068165</v>
       </c>
       <c r="F15">
-        <v>26.32450543437541</v>
+        <v>18.29035258884097</v>
       </c>
       <c r="G15">
-        <v>2.054621033760585</v>
+        <v>20.01933578679562</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.833304712065363</v>
       </c>
       <c r="J15">
-        <v>5.598406861805175</v>
+        <v>7.711965647559456</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>9.932958660106628</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.319431360130362</v>
       </c>
       <c r="M15">
-        <v>17.51458110389043</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>11.14814215055705</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>18.12344098332463</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.57806982455076</v>
+      </c>
+      <c r="P15">
+        <v>12.31834235763767</v>
+      </c>
+      <c r="Q15">
+        <v>12.54103076310066</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.425025113053</v>
+        <v>21.24682844287163</v>
       </c>
       <c r="C16">
-        <v>15.19264833808531</v>
+        <v>13.93987120491877</v>
       </c>
       <c r="D16">
-        <v>6.650215932091061</v>
+        <v>6.427261887741843</v>
       </c>
       <c r="E16">
-        <v>8.969869722716659</v>
+        <v>8.380173536623017</v>
       </c>
       <c r="F16">
-        <v>25.82817614953573</v>
+        <v>18.15018692541299</v>
       </c>
       <c r="G16">
-        <v>2.058616924352852</v>
+        <v>19.70615984950799</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.563375774817544</v>
       </c>
       <c r="J16">
-        <v>5.608834268426095</v>
+        <v>7.729381996632951</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>10.06677389244811</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.301185729736257</v>
       </c>
       <c r="M16">
-        <v>16.95261942587621</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>11.27151397935149</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>17.85657788074277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>13.26831442404298</v>
+      </c>
+      <c r="P16">
+        <v>12.30827018331177</v>
+      </c>
+      <c r="Q16">
+        <v>12.49521224815549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.93127500608911</v>
+        <v>20.86476808914019</v>
       </c>
       <c r="C17">
-        <v>14.88989549659506</v>
+        <v>13.76055879644866</v>
       </c>
       <c r="D17">
-        <v>6.574826779979468</v>
+        <v>6.5766179020287</v>
       </c>
       <c r="E17">
-        <v>8.905190985724989</v>
+        <v>8.535910617754663</v>
       </c>
       <c r="F17">
-        <v>25.52727355380154</v>
+        <v>18.4479905159084</v>
       </c>
       <c r="G17">
-        <v>2.061090287324204</v>
+        <v>19.94510630424786</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.822982680794666</v>
       </c>
       <c r="J17">
-        <v>5.61605125817116</v>
+        <v>7.811197262743741</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>10.24318550401692</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.274698546392552</v>
       </c>
       <c r="M17">
-        <v>16.59967404249857</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>11.34804019640275</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>17.6970965516936</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>13.41245587449777</v>
+      </c>
+      <c r="P17">
+        <v>12.25231348474077</v>
+      </c>
+      <c r="Q17">
+        <v>12.64962507701999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.64292605800857</v>
+        <v>20.69649774543003</v>
       </c>
       <c r="C18">
-        <v>14.71313350193586</v>
+        <v>13.76977237366373</v>
       </c>
       <c r="D18">
-        <v>6.531343396666185</v>
+        <v>6.924037494047844</v>
       </c>
       <c r="E18">
-        <v>8.868353889255093</v>
+        <v>8.966605780373115</v>
       </c>
       <c r="F18">
-        <v>25.35554567226597</v>
+        <v>19.15075486531015</v>
       </c>
       <c r="G18">
-        <v>2.062521305825066</v>
+        <v>20.67655385654455</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.638329672952793</v>
       </c>
       <c r="J18">
-        <v>5.620496620055673</v>
+        <v>7.955336236308446</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>10.47540465914318</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.303470234524775</v>
       </c>
       <c r="M18">
-        <v>16.39363662578709</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>11.39236546275963</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>17.60691798618289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.96560982984643</v>
+      </c>
+      <c r="P18">
+        <v>12.15380722671104</v>
+      </c>
+      <c r="Q18">
+        <v>12.98822400175635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.54454518926638</v>
+        <v>20.71568842025282</v>
       </c>
       <c r="C19">
-        <v>14.65283291574623</v>
+        <v>13.93064650064562</v>
       </c>
       <c r="D19">
-        <v>6.516600946579211</v>
+        <v>7.415829612565143</v>
       </c>
       <c r="E19">
-        <v>8.855944419720959</v>
+        <v>9.739852582101092</v>
       </c>
       <c r="F19">
-        <v>25.29763504858281</v>
+        <v>20.12100709385694</v>
       </c>
       <c r="G19">
-        <v>2.063007296939059</v>
+        <v>21.73365070946816</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.352970477803806</v>
       </c>
       <c r="J19">
-        <v>5.622051641849635</v>
+        <v>8.137912731691857</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>10.73878179149466</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.468353982520745</v>
       </c>
       <c r="M19">
-        <v>16.32335328395503</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>11.40742640839434</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>17.57665103976766</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>14.79598202856305</v>
+      </c>
+      <c r="P19">
+        <v>12.03260432483728</v>
+      </c>
+      <c r="Q19">
+        <v>13.44584495595771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.98428586427087</v>
+        <v>21.25565281265473</v>
       </c>
       <c r="C20">
-        <v>14.9223956759759</v>
+        <v>14.49974752695495</v>
       </c>
       <c r="D20">
-        <v>6.582864932927205</v>
+        <v>8.271292402446162</v>
       </c>
       <c r="E20">
-        <v>8.912038516861443</v>
+        <v>11.29929749349389</v>
       </c>
       <c r="F20">
-        <v>25.55916677012247</v>
+        <v>21.78476442271935</v>
       </c>
       <c r="G20">
-        <v>2.060826130655472</v>
+        <v>23.62881671084293</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>2.525176010158258</v>
       </c>
       <c r="J20">
-        <v>5.615252377723333</v>
+        <v>8.422410912995455</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>11.08373486831067</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.963855493848207</v>
       </c>
       <c r="M20">
-        <v>16.63755911766429</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>11.3398618333145</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>17.71391300956179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>16.33137430310334</v>
+      </c>
+      <c r="P20">
+        <v>11.84517077316874</v>
+      </c>
+      <c r="Q20">
+        <v>14.21625587086166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.4098908334789</v>
+        <v>22.51303736504136</v>
       </c>
       <c r="C21">
-        <v>15.79677953268971</v>
+        <v>15.33993820528004</v>
       </c>
       <c r="D21">
-        <v>6.803969880495088</v>
+        <v>8.618677635634658</v>
       </c>
       <c r="E21">
-        <v>9.104835266889305</v>
+        <v>11.73856919595195</v>
       </c>
       <c r="F21">
-        <v>26.45373292577401</v>
+        <v>22.55760512848786</v>
       </c>
       <c r="G21">
-        <v>2.053595914532072</v>
+        <v>24.71387233780206</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2.782601406946986</v>
       </c>
       <c r="J21">
-        <v>5.595974134144581</v>
+        <v>8.500782649297284</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>11.00932189463507</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.104461924583308</v>
       </c>
       <c r="M21">
-        <v>17.65714933359413</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>11.11655023455295</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>18.19365061568005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>17.26807732372649</v>
+      </c>
+      <c r="P21">
+        <v>11.77372588708688</v>
+      </c>
+      <c r="Q21">
+        <v>14.55832544970775</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.30339785331028</v>
+        <v>23.29158099694241</v>
       </c>
       <c r="C22">
-        <v>16.3450782140387</v>
+        <v>15.85108878186753</v>
       </c>
       <c r="D22">
-        <v>6.947156539552894</v>
+        <v>8.803885888611063</v>
       </c>
       <c r="E22">
-        <v>9.234008385281408</v>
+        <v>11.94370020315726</v>
       </c>
       <c r="F22">
-        <v>27.04978239236013</v>
+        <v>22.99399960738344</v>
       </c>
       <c r="G22">
-        <v>2.048938522793888</v>
+        <v>25.34635567181092</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>2.940518682159545</v>
       </c>
       <c r="J22">
-        <v>5.586148596639169</v>
+        <v>8.543403871252496</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>10.95178011393818</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.16692455742913</v>
       </c>
       <c r="M22">
-        <v>18.2969196173451</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>10.9733601579248</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>18.52107480164317</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>17.79904817871948</v>
+      </c>
+      <c r="P22">
+        <v>11.73789322714711</v>
+      </c>
+      <c r="Q22">
+        <v>14.75579766406871</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.82998314281453</v>
+        <v>22.87932116678403</v>
       </c>
       <c r="C23">
-        <v>16.05454813864049</v>
+        <v>15.58036368834184</v>
       </c>
       <c r="D23">
-        <v>6.870866281269699</v>
+        <v>8.705444833046396</v>
       </c>
       <c r="E23">
-        <v>9.16477974351573</v>
+        <v>11.83461958259396</v>
       </c>
       <c r="F23">
-        <v>26.73064121257272</v>
+        <v>22.76095278447906</v>
       </c>
       <c r="G23">
-        <v>2.051418388477976</v>
+        <v>25.00884395189655</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>2.856542895995473</v>
       </c>
       <c r="J23">
-        <v>5.591131199606982</v>
+        <v>8.520242162395121</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>10.98154905368823</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.133680350531065</v>
       </c>
       <c r="M23">
-        <v>17.95787447118891</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>11.04953067312284</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>18.34504803568264</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>17.51756549838924</v>
+      </c>
+      <c r="P23">
+        <v>11.75674313950831</v>
+      </c>
+      <c r="Q23">
+        <v>14.64976686836027</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.96033363286451</v>
+        <v>21.246064322667</v>
       </c>
       <c r="C24">
-        <v>14.90771077383467</v>
+        <v>14.50919026837144</v>
       </c>
       <c r="D24">
-        <v>6.579231320910377</v>
+        <v>8.323857383102755</v>
       </c>
       <c r="E24">
-        <v>8.908941664563439</v>
+        <v>11.41281934676751</v>
       </c>
       <c r="F24">
-        <v>25.54474390013348</v>
+        <v>21.88182419963237</v>
       </c>
       <c r="G24">
-        <v>2.060945527624598</v>
+        <v>23.73015213929043</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>2.531627950877137</v>
       </c>
       <c r="J24">
-        <v>5.615612630581134</v>
+        <v>8.441482522987704</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>11.11433369777757</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.005719797954985</v>
       </c>
       <c r="M24">
-        <v>16.62044101152658</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11.34355824546329</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>17.70630558848096</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>16.40984400507754</v>
+      </c>
+      <c r="P24">
+        <v>11.83405891945489</v>
+      </c>
+      <c r="Q24">
+        <v>14.26222177361882</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.77671520125092</v>
+        <v>19.32963512923106</v>
       </c>
       <c r="C25">
-        <v>13.57015863019728</v>
+        <v>13.25580410154628</v>
       </c>
       <c r="D25">
-        <v>6.260190409920307</v>
+        <v>7.895009823990816</v>
       </c>
       <c r="E25">
-        <v>8.646958171621641</v>
+        <v>10.94035895692208</v>
       </c>
       <c r="F25">
-        <v>24.31734384976616</v>
+        <v>20.94464671660076</v>
       </c>
       <c r="G25">
-        <v>2.071546926340055</v>
+        <v>22.3557923122657</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.165792613545573</v>
       </c>
       <c r="J25">
-        <v>5.65319403081666</v>
+        <v>8.374805894768924</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.29634209512843</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.863290737083344</v>
       </c>
       <c r="M25">
-        <v>15.15112174472812</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>11.67255943286912</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>17.07652852331608</v>
+        <v>15.12786525682712</v>
+      </c>
+      <c r="P25">
+        <v>11.92945378118258</v>
+      </c>
+      <c r="Q25">
+        <v>13.87444035834501</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.78434901618309</v>
+        <v>17.59398363112406</v>
       </c>
       <c r="C2">
-        <v>12.2488590341818</v>
+        <v>12.58602539790344</v>
       </c>
       <c r="D2">
-        <v>7.566102865928174</v>
+        <v>7.584598190227078</v>
       </c>
       <c r="E2">
-        <v>10.57862118072392</v>
+        <v>10.55207139504395</v>
       </c>
       <c r="F2">
-        <v>20.26796181276486</v>
+        <v>20.09030321075356</v>
       </c>
       <c r="G2">
-        <v>21.35465778035377</v>
+        <v>20.34240124577845</v>
       </c>
       <c r="H2">
-        <v>1.882509140530021</v>
+        <v>1.854193214627357</v>
       </c>
       <c r="J2">
-        <v>8.340496924900666</v>
+        <v>8.881567355020112</v>
       </c>
       <c r="K2">
-        <v>11.45994527666156</v>
+        <v>11.3045994274657</v>
       </c>
       <c r="L2">
-        <v>6.754612336529954</v>
+        <v>10.66883773231594</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.100227448501099</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.731562036321115</v>
       </c>
       <c r="O2">
-        <v>14.11150885793604</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.00941384855063</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.61496615966306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.13947795828855</v>
+      </c>
+      <c r="R2">
+        <v>12.06171560824673</v>
+      </c>
+      <c r="S2">
+        <v>13.49097756999833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.6529398955516</v>
+        <v>16.50928901345839</v>
       </c>
       <c r="C3">
-        <v>11.51435242580237</v>
+        <v>11.76041356721539</v>
       </c>
       <c r="D3">
-        <v>7.336024624352403</v>
+        <v>7.352473916711852</v>
       </c>
       <c r="E3">
-        <v>10.32552133164941</v>
+        <v>10.30709980070184</v>
       </c>
       <c r="F3">
-        <v>19.81975731849996</v>
+        <v>19.67704801458232</v>
       </c>
       <c r="G3">
-        <v>20.68674498395146</v>
+        <v>19.72818075027661</v>
       </c>
       <c r="H3">
-        <v>1.681505642568627</v>
+        <v>1.66263446963678</v>
       </c>
       <c r="J3">
-        <v>8.325972385319078</v>
+        <v>8.848230466734226</v>
       </c>
       <c r="K3">
-        <v>11.58754231686593</v>
+        <v>11.44202300978578</v>
       </c>
       <c r="L3">
-        <v>6.678583544892031</v>
+        <v>10.84999762549192</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.120309836373523</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.661460893904375</v>
       </c>
       <c r="O3">
-        <v>13.37939283325521</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.06939584049649</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.4552606852802</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.40478400463052</v>
+      </c>
+      <c r="R3">
+        <v>12.09844654590758</v>
+      </c>
+      <c r="S3">
+        <v>13.35477108645921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.91667212274128</v>
+        <v>15.80344414909412</v>
       </c>
       <c r="C4">
-        <v>11.03790243098785</v>
+        <v>11.22419286163537</v>
       </c>
       <c r="D4">
-        <v>7.191615510444295</v>
+        <v>7.207110226431511</v>
       </c>
       <c r="E4">
-        <v>10.16646696129465</v>
+        <v>10.15344875329271</v>
       </c>
       <c r="F4">
-        <v>19.55039154731876</v>
+        <v>19.42805605812957</v>
       </c>
       <c r="G4">
-        <v>20.28324991044622</v>
+        <v>19.35881520527459</v>
       </c>
       <c r="H4">
-        <v>1.567767545970671</v>
+        <v>1.580999000007246</v>
       </c>
       <c r="J4">
-        <v>8.321187714419006</v>
+        <v>8.829691886104483</v>
       </c>
       <c r="K4">
-        <v>11.67360163853763</v>
+        <v>11.53232928031163</v>
       </c>
       <c r="L4">
-        <v>6.630732254919502</v>
+        <v>10.96647393508499</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.1600160331198</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.617367927093511</v>
       </c>
       <c r="O4">
-        <v>12.90935869123618</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.10899941256895</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.36508505896722</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.93295097582491</v>
+      </c>
+      <c r="R4">
+        <v>12.12399127253418</v>
+      </c>
+      <c r="S4">
+        <v>13.27767398129275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.60618336167707</v>
+        <v>15.50580133361407</v>
       </c>
       <c r="C5">
-        <v>10.83739494697462</v>
+        <v>10.99835900565119</v>
       </c>
       <c r="D5">
-        <v>7.132044405817298</v>
+        <v>7.147232744784211</v>
       </c>
       <c r="E5">
-        <v>10.10077784229192</v>
+        <v>10.09006672933941</v>
       </c>
       <c r="F5">
-        <v>19.44219709670174</v>
+        <v>19.32786855309271</v>
       </c>
       <c r="G5">
-        <v>20.12070260287451</v>
+        <v>19.210418203135</v>
       </c>
       <c r="H5">
-        <v>1.622395576688149</v>
+        <v>1.633095846256805</v>
       </c>
       <c r="J5">
-        <v>8.320251434546098</v>
+        <v>8.822615183782125</v>
       </c>
       <c r="K5">
-        <v>11.71053618134301</v>
+        <v>11.57056919858177</v>
       </c>
       <c r="L5">
-        <v>6.610939357830055</v>
+        <v>11.0152705143291</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.182889977732917</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.599136358172434</v>
       </c>
       <c r="O5">
-        <v>12.71281822226993</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.12582422294202</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.33030428820886</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.73562563396139</v>
+      </c>
+      <c r="R5">
+        <v>12.13514210231429</v>
+      </c>
+      <c r="S5">
+        <v>13.2478776674045</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.55399581814318</v>
+        <v>15.45577426690623</v>
       </c>
       <c r="C6">
-        <v>10.80371914093174</v>
+        <v>10.96041908555701</v>
       </c>
       <c r="D6">
-        <v>7.122111033591093</v>
+        <v>7.137253691836704</v>
       </c>
       <c r="E6">
-        <v>10.08981884062705</v>
+        <v>10.079497210574</v>
       </c>
       <c r="F6">
-        <v>19.42432965698045</v>
+        <v>19.3113121532541</v>
       </c>
       <c r="G6">
-        <v>20.09383175756229</v>
+        <v>19.18591007320145</v>
       </c>
       <c r="H6">
-        <v>1.631538750727737</v>
+        <v>1.6418160934391</v>
       </c>
       <c r="J6">
-        <v>8.320156411786526</v>
+        <v>8.821468743707699</v>
       </c>
       <c r="K6">
-        <v>11.71677963995347</v>
+        <v>11.57700441258333</v>
       </c>
       <c r="L6">
-        <v>6.607635089897407</v>
+        <v>11.02345395017875</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.187085682200385</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.596093143332729</v>
       </c>
       <c r="O6">
-        <v>12.67988627458758</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.12865907936913</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.32464716420326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.7025603099703</v>
+      </c>
+      <c r="R6">
+        <v>12.13703813568277</v>
+      </c>
+      <c r="S6">
+        <v>13.24302722953638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.91252707983133</v>
+        <v>15.7945798503485</v>
       </c>
       <c r="C7">
-        <v>11.03522394819682</v>
+        <v>11.21221428095238</v>
       </c>
       <c r="D7">
-        <v>7.190814950326635</v>
+        <v>7.209023206835205</v>
       </c>
       <c r="E7">
-        <v>10.16558452910621</v>
+        <v>10.15363223483983</v>
       </c>
       <c r="F7">
-        <v>19.54892588495122</v>
+        <v>19.41484626797186</v>
       </c>
       <c r="G7">
-        <v>20.28104983612776</v>
+        <v>19.45362884693979</v>
       </c>
       <c r="H7">
-        <v>1.568499445800068</v>
+        <v>1.582221979339621</v>
       </c>
       <c r="J7">
-        <v>8.321171018351214</v>
+        <v>8.790466606837178</v>
       </c>
       <c r="K7">
-        <v>11.67409229687121</v>
+        <v>11.52857614169639</v>
       </c>
       <c r="L7">
-        <v>6.630466506427974</v>
+        <v>10.96313654846358</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.15789311188297</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.616862615545729</v>
       </c>
       <c r="O7">
-        <v>12.90672807889716</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.10922355490275</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.36460805614838</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.92766862979085</v>
+      </c>
+      <c r="R7">
+        <v>12.12539926843652</v>
+      </c>
+      <c r="S7">
+        <v>13.26791398764949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.40286630070253</v>
+        <v>17.21322879051507</v>
       </c>
       <c r="C8">
-        <v>12.00091153884558</v>
+        <v>12.27984670107548</v>
       </c>
       <c r="D8">
-        <v>7.48746178271759</v>
+        <v>7.513981340437861</v>
       </c>
       <c r="E8">
-        <v>10.49213574255364</v>
+        <v>10.47177610494061</v>
       </c>
       <c r="F8">
-        <v>20.11227518189614</v>
+        <v>19.90851736348346</v>
       </c>
       <c r="G8">
-        <v>21.12312046107592</v>
+        <v>20.43955966163972</v>
       </c>
       <c r="H8">
-        <v>1.814139418927144</v>
+        <v>1.787464755856515</v>
       </c>
       <c r="J8">
-        <v>8.334615577934876</v>
+        <v>8.741955281141593</v>
       </c>
       <c r="K8">
-        <v>11.50229313025512</v>
+        <v>11.3365993524224</v>
       </c>
       <c r="L8">
-        <v>6.72864077652246</v>
+        <v>10.71834878309928</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.09122048468837</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.706822106683773</v>
       </c>
       <c r="O8">
-        <v>13.86341926141506</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.02951260460538</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.55825538106279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.88229293491681</v>
+      </c>
+      <c r="R8">
+        <v>12.07823707261658</v>
+      </c>
+      <c r="S8">
+        <v>13.41201910752642</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.99596850756271</v>
+        <v>19.69704859087244</v>
       </c>
       <c r="C9">
-        <v>13.69109617838835</v>
+        <v>14.17275002452095</v>
       </c>
       <c r="D9">
-        <v>8.041633718339423</v>
+        <v>8.076478218952557</v>
       </c>
       <c r="E9">
-        <v>11.10174747771019</v>
+        <v>11.06424283836995</v>
       </c>
       <c r="F9">
-        <v>21.25852815486736</v>
+        <v>20.95433505161551</v>
       </c>
       <c r="G9">
-        <v>22.81754527018015</v>
+        <v>22.06603668712655</v>
       </c>
       <c r="H9">
-        <v>2.291141239169103</v>
+        <v>2.241471459602262</v>
       </c>
       <c r="J9">
-        <v>8.394905233019486</v>
+        <v>8.802724787342303</v>
       </c>
       <c r="K9">
-        <v>11.23019335574848</v>
+        <v>11.02505439783919</v>
       </c>
       <c r="L9">
-        <v>6.911859052841321</v>
+        <v>10.29398231841616</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.19127287815116</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.875817651501443</v>
       </c>
       <c r="O9">
-        <v>15.57115472480817</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>11.89577160109705</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.00101485866367</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.59390668821115</v>
+      </c>
+      <c r="R9">
+        <v>12.00546528338238</v>
+      </c>
+      <c r="S9">
+        <v>13.78166417099283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.68709234285824</v>
+        <v>21.29687638188766</v>
       </c>
       <c r="C10">
-        <v>14.77835125758579</v>
+        <v>15.34442144491091</v>
       </c>
       <c r="D10">
-        <v>8.355971623447594</v>
+        <v>8.410521191320562</v>
       </c>
       <c r="E10">
-        <v>11.37761117326978</v>
+        <v>11.334074823276</v>
       </c>
       <c r="F10">
-        <v>21.98239929895171</v>
+        <v>21.54477317781723</v>
       </c>
       <c r="G10">
-        <v>23.92846191809417</v>
+        <v>23.62278325119853</v>
       </c>
       <c r="H10">
-        <v>2.609179413351117</v>
+        <v>2.541457309500951</v>
       </c>
       <c r="J10">
-        <v>8.435803535088013</v>
+        <v>8.622050934995237</v>
       </c>
       <c r="K10">
-        <v>11.03804242549726</v>
+        <v>10.7736283946435</v>
       </c>
       <c r="L10">
-        <v>6.985424085150181</v>
+        <v>9.971021709947507</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.345192979237607</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.938740177434891</v>
       </c>
       <c r="O10">
-        <v>16.6003637164091</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>11.82785709217427</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.30041618438707</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.61229792727158</v>
+      </c>
+      <c r="R10">
+        <v>11.99225148293092</v>
+      </c>
+      <c r="S10">
+        <v>13.97487714753487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.29142629774694</v>
+        <v>21.85132789672451</v>
       </c>
       <c r="C11">
-        <v>14.99657565497994</v>
+        <v>15.47453854954121</v>
       </c>
       <c r="D11">
-        <v>7.873561495922983</v>
+        <v>7.94714931484644</v>
       </c>
       <c r="E11">
-        <v>10.28364104265793</v>
+        <v>10.23237560047586</v>
       </c>
       <c r="F11">
-        <v>21.12524097355342</v>
+        <v>20.57003589721088</v>
       </c>
       <c r="G11">
-        <v>23.15038121389921</v>
+        <v>23.92458562950722</v>
       </c>
       <c r="H11">
-        <v>3.33111340770781</v>
+        <v>3.271430489761503</v>
       </c>
       <c r="J11">
-        <v>8.235533600430864</v>
+        <v>8.028765827826813</v>
       </c>
       <c r="K11">
-        <v>10.63875468964673</v>
+        <v>10.35554367997088</v>
       </c>
       <c r="L11">
-        <v>6.616329851502699</v>
+        <v>9.646994966441975</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.120723662375765</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.566081913926493</v>
       </c>
       <c r="O11">
-        <v>16.03893321806157</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>11.94645176603555</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>13.88192148918898</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>16.02399405378027</v>
+      </c>
+      <c r="R11">
+        <v>12.1517471405229</v>
+      </c>
+      <c r="S11">
+        <v>13.45897314656167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.45771779141304</v>
+        <v>22.00736542175561</v>
       </c>
       <c r="C12">
-        <v>14.95877665997138</v>
+        <v>15.3692910173297</v>
       </c>
       <c r="D12">
-        <v>7.406255949494798</v>
+        <v>7.480811952575022</v>
       </c>
       <c r="E12">
-        <v>9.44284885716783</v>
+        <v>9.377465121623336</v>
       </c>
       <c r="F12">
-        <v>20.22953163277852</v>
+        <v>19.64417029315059</v>
       </c>
       <c r="G12">
-        <v>22.23574367264317</v>
+        <v>23.53578433168152</v>
       </c>
       <c r="H12">
-        <v>4.465798014240006</v>
+        <v>4.420595262069852</v>
       </c>
       <c r="J12">
-        <v>8.051908989989286</v>
+        <v>7.714682764102291</v>
       </c>
       <c r="K12">
-        <v>10.33720614746226</v>
+        <v>10.07097783701462</v>
       </c>
       <c r="L12">
-        <v>6.404147448298783</v>
+        <v>9.459681046920219</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>5.897477086889867</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.354203767631969</v>
       </c>
       <c r="O12">
-        <v>15.34071754692842</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.0706282268152</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.45206949840132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.3130400363384</v>
+      </c>
+      <c r="R12">
+        <v>12.29325763827498</v>
+      </c>
+      <c r="S12">
+        <v>13.00342803027875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.30311037265689</v>
+        <v>21.88157949999228</v>
       </c>
       <c r="C13">
-        <v>14.721047874727</v>
+        <v>15.09131997142143</v>
       </c>
       <c r="D13">
-        <v>6.917608348809007</v>
+        <v>6.974417004699442</v>
       </c>
       <c r="E13">
-        <v>8.778735413715246</v>
+        <v>8.695774045632829</v>
       </c>
       <c r="F13">
-        <v>19.23517793920391</v>
+        <v>18.71088481319825</v>
       </c>
       <c r="G13">
-        <v>21.1346520505228</v>
+        <v>22.35639064485037</v>
       </c>
       <c r="H13">
-        <v>5.713264406806506</v>
+        <v>5.680137705365861</v>
       </c>
       <c r="J13">
-        <v>7.86901966478633</v>
+        <v>7.631333423679096</v>
       </c>
       <c r="K13">
-        <v>10.09411185254792</v>
+        <v>9.880235099232515</v>
       </c>
       <c r="L13">
-        <v>6.307477657073714</v>
+        <v>9.358143369997997</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.673987578487822</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.26139247594884</v>
       </c>
       <c r="O13">
-        <v>14.47562335035277</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.20163552646129</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>12.98147224167511</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.45018850980598</v>
+      </c>
+      <c r="R13">
+        <v>12.41772741363349</v>
+      </c>
+      <c r="S13">
+        <v>12.58224880650256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.04763404824892</v>
+        <v>21.66398067531745</v>
       </c>
       <c r="C14">
-        <v>14.46109457747699</v>
+        <v>14.81414685968365</v>
       </c>
       <c r="D14">
-        <v>6.567493598511008</v>
+        <v>6.604505205779125</v>
       </c>
       <c r="E14">
-        <v>8.442822637184829</v>
+        <v>8.349634213203579</v>
       </c>
       <c r="F14">
-        <v>18.49048667129624</v>
+        <v>18.04814551026866</v>
       </c>
       <c r="G14">
-        <v>20.26888734479459</v>
+        <v>21.16986491496984</v>
       </c>
       <c r="H14">
-        <v>6.625292763890857</v>
+        <v>6.598999753868644</v>
       </c>
       <c r="J14">
-        <v>7.741804642600789</v>
+        <v>7.662715608163609</v>
       </c>
       <c r="K14">
-        <v>9.953465636526225</v>
+        <v>9.788831568075375</v>
       </c>
       <c r="L14">
-        <v>6.310671787898227</v>
+        <v>9.321419038478496</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.521030895753746</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.268898858868615</v>
       </c>
       <c r="O14">
-        <v>13.78337047150311</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.29581271594832</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>12.63278487128596</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.76592760403449</v>
+      </c>
+      <c r="R14">
+        <v>12.49598831639724</v>
+      </c>
+      <c r="S14">
+        <v>12.30007091836971</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.91566424971454</v>
+        <v>21.54905707894458</v>
       </c>
       <c r="C15">
-        <v>14.35392070122235</v>
+        <v>14.70718939838086</v>
       </c>
       <c r="D15">
-        <v>6.47687536943821</v>
+        <v>6.506328095480912</v>
       </c>
       <c r="E15">
-        <v>8.379606814068165</v>
+        <v>8.285283027985441</v>
       </c>
       <c r="F15">
-        <v>18.29035258884097</v>
+        <v>17.88437179116868</v>
       </c>
       <c r="G15">
-        <v>20.01933578679562</v>
+        <v>20.72879920977768</v>
       </c>
       <c r="H15">
-        <v>6.833304712065363</v>
+        <v>6.808851011105145</v>
       </c>
       <c r="J15">
-        <v>7.711965647559456</v>
+        <v>7.709754791223442</v>
       </c>
       <c r="K15">
-        <v>9.932958660106628</v>
+        <v>9.785365253040572</v>
       </c>
       <c r="L15">
-        <v>6.319431360130362</v>
+        <v>9.32748251452985</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.485877682040815</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.279339020725396</v>
       </c>
       <c r="O15">
-        <v>13.57806982455076</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.31834235763767</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.54103076310066</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.56530335922631</v>
+      </c>
+      <c r="R15">
+        <v>12.50978424774851</v>
+      </c>
+      <c r="S15">
+        <v>12.23788964940039</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.24682844287163</v>
+        <v>20.9477508176181</v>
       </c>
       <c r="C16">
-        <v>13.93987120491877</v>
+        <v>14.32532214019699</v>
       </c>
       <c r="D16">
-        <v>6.427261887741843</v>
+        <v>6.434683787885327</v>
       </c>
       <c r="E16">
-        <v>8.380173536623017</v>
+        <v>8.295047956748045</v>
       </c>
       <c r="F16">
-        <v>18.15018692541299</v>
+        <v>17.8805530770482</v>
       </c>
       <c r="G16">
-        <v>19.70615984950799</v>
+        <v>19.48543090216814</v>
       </c>
       <c r="H16">
-        <v>6.563375774817544</v>
+        <v>6.542876330406395</v>
       </c>
       <c r="J16">
-        <v>7.729381996632951</v>
+        <v>8.061909888828119</v>
       </c>
       <c r="K16">
-        <v>10.06677389244811</v>
+        <v>9.961888967525656</v>
       </c>
       <c r="L16">
-        <v>6.301185729736257</v>
+        <v>9.474014843756509</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.505737794284189</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.26656873563126</v>
       </c>
       <c r="O16">
-        <v>13.26831442404298</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.30827018331177</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.49521224815549</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.27809020994407</v>
+      </c>
+      <c r="R16">
+        <v>12.4587812372417</v>
+      </c>
+      <c r="S16">
+        <v>12.30320441998016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.86476808914019</v>
+        <v>20.5913151434342</v>
       </c>
       <c r="C17">
-        <v>13.76055879644866</v>
+        <v>14.16983803516619</v>
       </c>
       <c r="D17">
-        <v>6.5766179020287</v>
+        <v>6.579531986667638</v>
       </c>
       <c r="E17">
-        <v>8.535910617754663</v>
+        <v>8.459455291901588</v>
       </c>
       <c r="F17">
-        <v>18.4479905159084</v>
+        <v>18.22442859753577</v>
       </c>
       <c r="G17">
-        <v>19.94510630424786</v>
+        <v>19.31462290521241</v>
       </c>
       <c r="H17">
-        <v>5.822982680794666</v>
+        <v>5.802513082243134</v>
       </c>
       <c r="J17">
-        <v>7.811197262743741</v>
+        <v>8.284946652617379</v>
       </c>
       <c r="K17">
-        <v>10.24318550401692</v>
+        <v>10.14215744791641</v>
       </c>
       <c r="L17">
-        <v>6.274698546392552</v>
+        <v>9.611652393539522</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.595433128881825</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.241755492042683</v>
       </c>
       <c r="O17">
-        <v>13.41245587449777</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.25231348474077</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>12.64962507701999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>13.43222385069778</v>
+      </c>
+      <c r="R17">
+        <v>12.38410398000743</v>
+      </c>
+      <c r="S17">
+        <v>12.49511153841405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.69649774543003</v>
+        <v>20.42284369618763</v>
       </c>
       <c r="C18">
-        <v>13.76977237366373</v>
+        <v>14.21357696761899</v>
       </c>
       <c r="D18">
-        <v>6.924037494047844</v>
+        <v>6.931467289225523</v>
       </c>
       <c r="E18">
-        <v>8.966605780373115</v>
+        <v>8.898957795835836</v>
       </c>
       <c r="F18">
-        <v>19.15075486531015</v>
+        <v>18.92504854558369</v>
       </c>
       <c r="G18">
-        <v>20.67655385654455</v>
+        <v>19.85243431212517</v>
       </c>
       <c r="H18">
-        <v>4.638329672952793</v>
+        <v>4.613539146318421</v>
       </c>
       <c r="J18">
-        <v>7.955336236308446</v>
+        <v>8.477988032603424</v>
       </c>
       <c r="K18">
-        <v>10.47540465914318</v>
+        <v>10.35493064114151</v>
       </c>
       <c r="L18">
-        <v>6.303470234524775</v>
+        <v>9.764110985079608</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.754411580335385</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.269621596127406</v>
       </c>
       <c r="O18">
-        <v>13.96560982984643</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.15380722671104</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>12.98822400175635</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.99026919322371</v>
+      </c>
+      <c r="R18">
+        <v>12.27873756831846</v>
+      </c>
+      <c r="S18">
+        <v>12.83249850326339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.71568842025282</v>
+        <v>20.42454751762988</v>
       </c>
       <c r="C19">
-        <v>13.93064650064562</v>
+        <v>14.4209786030316</v>
       </c>
       <c r="D19">
-        <v>7.415829612565143</v>
+        <v>7.432614718027875</v>
       </c>
       <c r="E19">
-        <v>9.739852582101092</v>
+        <v>9.681319230090775</v>
       </c>
       <c r="F19">
-        <v>20.12100709385694</v>
+        <v>19.86450661269675</v>
       </c>
       <c r="G19">
-        <v>21.73365070946816</v>
+        <v>20.82553752145223</v>
       </c>
       <c r="H19">
-        <v>3.352970477803806</v>
+        <v>3.316978013117693</v>
       </c>
       <c r="J19">
-        <v>8.137912731691857</v>
+        <v>8.659107584420381</v>
       </c>
       <c r="K19">
-        <v>10.73878179149466</v>
+        <v>10.58425223010087</v>
       </c>
       <c r="L19">
-        <v>6.468353982520745</v>
+        <v>9.920541365830724</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.960352461048165</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.431959734421741</v>
       </c>
       <c r="O19">
-        <v>14.79598202856305</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.03260432483728</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.44584495595771</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.82293950522984</v>
+      </c>
+      <c r="R19">
+        <v>12.15801932726619</v>
+      </c>
+      <c r="S19">
+        <v>13.26603116647064</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.25565281265473</v>
+        <v>20.90249156165795</v>
       </c>
       <c r="C20">
-        <v>14.49974752695495</v>
+        <v>15.069193815634</v>
       </c>
       <c r="D20">
-        <v>8.271292402446162</v>
+        <v>8.31187127814311</v>
       </c>
       <c r="E20">
-        <v>11.29929749349389</v>
+        <v>11.25352604588198</v>
       </c>
       <c r="F20">
-        <v>21.78476442271935</v>
+        <v>21.42076506051008</v>
       </c>
       <c r="G20">
-        <v>23.62881671084293</v>
+        <v>22.90726672351292</v>
       </c>
       <c r="H20">
-        <v>2.525176010158258</v>
+        <v>2.463572111460343</v>
       </c>
       <c r="J20">
-        <v>8.422410912995455</v>
+        <v>8.798637970970201</v>
       </c>
       <c r="K20">
-        <v>11.08373486831067</v>
+        <v>10.85123627562846</v>
       </c>
       <c r="L20">
-        <v>6.963855493848207</v>
+        <v>10.06248194559565</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.310256115522166</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.920617665025048</v>
       </c>
       <c r="O20">
-        <v>16.33137430310334</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>11.84517077316874</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.21625587086166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.35382690979172</v>
+      </c>
+      <c r="R20">
+        <v>11.98949009756384</v>
+      </c>
+      <c r="S20">
+        <v>13.95068929351079</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.51303736504136</v>
+        <v>22.01890438516806</v>
       </c>
       <c r="C21">
-        <v>15.33993820528004</v>
+        <v>15.852691218547</v>
       </c>
       <c r="D21">
-        <v>8.618677635634658</v>
+        <v>8.722588056184257</v>
       </c>
       <c r="E21">
-        <v>11.73856919595195</v>
+        <v>11.71098095530512</v>
       </c>
       <c r="F21">
-        <v>22.55760512848786</v>
+        <v>21.88258089419541</v>
       </c>
       <c r="G21">
-        <v>24.71387233780206</v>
+        <v>25.87474485845355</v>
       </c>
       <c r="H21">
-        <v>2.782601406946986</v>
+        <v>2.699484626855011</v>
       </c>
       <c r="J21">
-        <v>8.500782649297284</v>
+        <v>8.05111076053165</v>
       </c>
       <c r="K21">
-        <v>11.00932189463507</v>
+        <v>10.63620342350545</v>
       </c>
       <c r="L21">
-        <v>7.104461924583308</v>
+        <v>9.805320746234957</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6.433264140237071</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.049558033831977</v>
       </c>
       <c r="O21">
-        <v>17.26807732372649</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>11.77372588708688</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.55832544970775</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.24286478675074</v>
+      </c>
+      <c r="R21">
+        <v>11.99100225640715</v>
+      </c>
+      <c r="S21">
+        <v>14.03683485295014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.29158099694241</v>
+        <v>22.70607673045527</v>
       </c>
       <c r="C22">
-        <v>15.85108878186753</v>
+        <v>16.31628918817661</v>
       </c>
       <c r="D22">
-        <v>8.803885888611063</v>
+        <v>8.951883027904785</v>
       </c>
       <c r="E22">
-        <v>11.94370020315726</v>
+        <v>11.93007468481902</v>
       </c>
       <c r="F22">
-        <v>22.99399960738344</v>
+        <v>22.10522410702234</v>
       </c>
       <c r="G22">
-        <v>25.34635567181092</v>
+        <v>27.82007461342192</v>
       </c>
       <c r="H22">
-        <v>2.940518682159545</v>
+        <v>2.843855343034139</v>
       </c>
       <c r="J22">
-        <v>8.543403871252496</v>
+        <v>7.569218022611808</v>
       </c>
       <c r="K22">
-        <v>10.95178011393818</v>
+        <v>10.47851725893545</v>
       </c>
       <c r="L22">
-        <v>7.16692455742913</v>
+        <v>9.631503048935695</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.509079470628352</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.104895231746582</v>
       </c>
       <c r="O22">
-        <v>17.79904817871948</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>11.73789322714711</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>14.75579766406871</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>17.74063701622613</v>
+      </c>
+      <c r="R22">
+        <v>12.00693994040403</v>
+      </c>
+      <c r="S22">
+        <v>14.0556798604214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.87932116678403</v>
+        <v>22.35168377696585</v>
       </c>
       <c r="C23">
-        <v>15.58036368834184</v>
+        <v>16.08824744397709</v>
       </c>
       <c r="D23">
-        <v>8.705444833046396</v>
+        <v>8.823432986811817</v>
       </c>
       <c r="E23">
-        <v>11.83461958259396</v>
+        <v>11.81048407295247</v>
       </c>
       <c r="F23">
-        <v>22.76095278447906</v>
+        <v>22.01406364399178</v>
       </c>
       <c r="G23">
-        <v>25.00884395189655</v>
+        <v>26.56866075296465</v>
       </c>
       <c r="H23">
-        <v>2.856542895995473</v>
+        <v>2.767944856095222</v>
       </c>
       <c r="J23">
-        <v>8.520242162395121</v>
+        <v>7.899154855180404</v>
       </c>
       <c r="K23">
-        <v>10.98154905368823</v>
+        <v>10.57378977647028</v>
       </c>
       <c r="L23">
-        <v>7.133680350531065</v>
+        <v>9.730115090818966</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.478845905435643</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.075801108722181</v>
       </c>
       <c r="O23">
-        <v>17.51756549838924</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>11.75674313950831</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.64976686836027</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>17.4822588954355</v>
+      </c>
+      <c r="R23">
+        <v>11.99369204501098</v>
+      </c>
+      <c r="S23">
+        <v>14.06838697461777</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.246064322667</v>
+        <v>20.89207350590119</v>
       </c>
       <c r="C24">
-        <v>14.50919026837144</v>
+        <v>15.08357316794281</v>
       </c>
       <c r="D24">
-        <v>8.323857383102755</v>
+        <v>8.3649458350998</v>
       </c>
       <c r="E24">
-        <v>11.41281934676751</v>
+        <v>11.36789459904179</v>
       </c>
       <c r="F24">
-        <v>21.88182419963237</v>
+        <v>21.51668935096126</v>
       </c>
       <c r="G24">
-        <v>23.73015213929043</v>
+        <v>22.98798669895194</v>
       </c>
       <c r="H24">
-        <v>2.531627950877137</v>
+        <v>2.469920237819417</v>
       </c>
       <c r="J24">
-        <v>8.441482522987704</v>
+        <v>8.822806238224336</v>
       </c>
       <c r="K24">
-        <v>11.11433369777757</v>
+        <v>10.87888980087274</v>
       </c>
       <c r="L24">
-        <v>7.005719797954985</v>
+        <v>10.08250350173108</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.331965112090485</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.962381697970027</v>
       </c>
       <c r="O24">
-        <v>16.40984400507754</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>11.83405891945489</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.26222177361882</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.43281491691391</v>
+      </c>
+      <c r="R24">
+        <v>11.97766688397043</v>
+      </c>
+      <c r="S24">
+        <v>13.99577795877896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.32963512923106</v>
+        <v>19.06477067900049</v>
       </c>
       <c r="C25">
-        <v>13.25580410154628</v>
+        <v>13.69659451380299</v>
       </c>
       <c r="D25">
-        <v>7.895009823990816</v>
+        <v>7.923804535071441</v>
       </c>
       <c r="E25">
-        <v>10.94035895692208</v>
+        <v>10.90567752429175</v>
       </c>
       <c r="F25">
-        <v>20.94464671660076</v>
+        <v>20.68409925088991</v>
       </c>
       <c r="G25">
-        <v>22.3557923122657</v>
+        <v>21.49555632766909</v>
       </c>
       <c r="H25">
-        <v>2.165792613545573</v>
+        <v>2.122850852869927</v>
       </c>
       <c r="J25">
-        <v>8.374805894768924</v>
+        <v>8.838331667646958</v>
       </c>
       <c r="K25">
-        <v>11.29634209512843</v>
+        <v>11.10974965801174</v>
       </c>
       <c r="L25">
-        <v>6.863290737083344</v>
+        <v>10.40892164135317</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.145339972356426</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.831298307508001</v>
       </c>
       <c r="O25">
-        <v>15.12786525682712</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>11.92945378118258</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>13.87444035834501</v>
+        <v>15.15304642223682</v>
+      </c>
+      <c r="R25">
+        <v>12.02040950242959</v>
+      </c>
+      <c r="S25">
+        <v>13.68875342909502</v>
       </c>
     </row>
   </sheetData>
